--- a/scene_classification/results/tables/performance/per_class_eurosat.xlsx
+++ b/scene_classification/results/tables/performance/per_class_eurosat.xlsx
@@ -514,7 +514,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>resnet50</t>
+          <t>convnext_tiny</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.9753694581280788</v>
+        <v>0.9849749582637729</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.9826302729528535</v>
+        <v>0.9841534612176814</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>600</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.9983277591973244</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.995</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.996661101836394</v>
+        <v>0.998330550918197</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>600</v>
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.9704433497536946</v>
+        <v>0.9834983498349835</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.985</v>
+        <v>0.9933333333333333</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.9776674937965261</v>
+        <v>0.988391376451078</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>600</v>
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.9899799599198397</v>
+        <v>0.9841584158415841</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.988</v>
+        <v>0.994</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.988988988988989</v>
+        <v>0.9890547263681592</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>500</v>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.9880478087649402</v>
+        <v>0.9979838709677419</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.9900199600798403</v>
+        <v>0.9939759036144579</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>500</v>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.9923664122137404</v>
+        <v>0.9924242424242424</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.975</v>
+        <v>0.9825</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.9836065573770492</v>
+        <v>0.9874371859296482</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>400</v>
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.9757085020242915</v>
+        <v>0.9761431411530815</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.964</v>
+        <v>0.982</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.9698189134808853</v>
+        <v>0.9790628115653041</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>500</v>
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.9966555183946488</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.9933333333333333</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.994991652754591</v>
+        <v>0.9975062344139651</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>600</v>
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.9920159680638723</v>
+        <v>0.9959595959595959</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.994</v>
+        <v>0.986</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.993006993006993</v>
+        <v>0.9909547738693467</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>500</v>
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.995</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.9974937343358395</v>
+        <v>0.9991659716430359</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>600</v>
@@ -718,7 +718,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>resnet101</t>
+          <t>densenet121</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.9815436241610739</v>
+        <v>0.9816971713810316</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.975</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9825145711906744</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>600</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.9900662251655629</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.9933554817275747</v>
+        <v>0.9975062344139651</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>600</v>
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.9546191247974068</v>
+        <v>0.975328947368421</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.9816666666666667</v>
+        <v>0.9883333333333333</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.9679539852095317</v>
+        <v>0.9817880794701986</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>600</v>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.9840637450199203</v>
+        <v>0.9880715705765407</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.988</v>
+        <v>0.994</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.9860279441117764</v>
+        <v>0.9910269192422732</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>500</v>
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0.9899193548387096</v>
+        <v>0.9940119760479041</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.982</v>
+        <v>0.996</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.9859437751004017</v>
+        <v>0.995004995004995</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>500</v>
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>0.9626865671641791</v>
+        <v>0.9874371859296482</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.9675</v>
+        <v>0.9825</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.9650872817955112</v>
+        <v>0.9849624060150376</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>400</v>
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.9753086419753086</v>
+        <v>0.9816326530612245</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.948</v>
+        <v>0.962</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.9614604462474645</v>
+        <v>0.9717171717171718</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>500</v>
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>0.9916805324459235</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>0.9933333333333333</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0.9925062447960034</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>600</v>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.9800796812749004</v>
+        <v>0.9959758551307847</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.984</v>
+        <v>0.99</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0.9820359281437125</v>
+        <v>0.9929789368104313</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>500</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.9983164983164983</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>0.9883333333333333</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.9932998324958124</v>
+        <v>0.9991659716430359</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>600</v>
@@ -922,7 +922,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>densenet121</t>
+          <t>efficientnet_b0</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>0.9652317880794702</v>
+        <v>0.979933110367893</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>0.9716666666666667</v>
+        <v>0.9766666666666667</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>0.96843853820598</v>
+        <v>0.9782971619365609</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>600</v>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.9983277591973244</v>
+        <v>0.9916943521594684</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>0.995</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.996661101836394</v>
+        <v>0.9933444259567388</v>
       </c>
       <c r="F23" s="3" t="n">
         <v>600</v>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.9688524590163935</v>
+        <v>0.9882943143812709</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>0.985</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0.9768595041322314</v>
+        <v>0.986644407345576</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>600</v>
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.9879518072289156</v>
+        <v>0.9880715705765407</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.984</v>
+        <v>0.994</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.9859719438877755</v>
+        <v>0.9910269192422732</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>500</v>
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.9939759036144579</v>
+        <v>0.9900596421471173</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.9919839679358717</v>
+        <v>0.9930209371884346</v>
       </c>
       <c r="F26" s="3" t="n">
         <v>500</v>
@@ -1031,13 +1031,13 @@
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>0.9796954314720813</v>
+        <v>0.979746835443038</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>0.965</v>
+        <v>0.9675</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.9722921914357683</v>
+        <v>0.9735849056603774</v>
       </c>
       <c r="F27" s="3" t="n">
         <v>400</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.9599198396793587</v>
+        <v>0.9702380952380952</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.958</v>
+        <v>0.978</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.958958958958959</v>
+        <v>0.9741035856573705</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>500</v>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.9950248756218906</v>
+        <v>0.9966499162479062</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>1</v>
+        <v>0.9916666666666667</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>0.9975062344139651</v>
+        <v>0.9941520467836257</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>600</v>
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>0.9959758551307847</v>
+        <v>0.9899598393574297</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>0.99</v>
+        <v>0.986</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0.9929789368104313</v>
+        <v>0.9879759519038076</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>500</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C31" s="3" t="n">
+        <v>0.9966777408637874</v>
+      </c>
+      <c r="D31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="3" t="n">
-        <v>0.9983333333333333</v>
-      </c>
       <c r="E31" s="3" t="n">
-        <v>0.9991659716430359</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>600</v>
@@ -1126,7 +1126,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>efficientnet_b0</t>
+          <t>efficientnet_b3</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.9862778730703259</v>
+        <v>0.9916247906197655</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.9721048182586645</v>
+        <v>0.9891395154553049</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>600</v>
@@ -1155,13 +1155,13 @@
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.9983277591973244</v>
+        <v>0.996661101836394</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>0.995</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>0.996661101836394</v>
+        <v>0.9958298582151793</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>600</v>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.9609120521172638</v>
+        <v>0.967373572593801</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9883333333333333</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.9719934102141681</v>
+        <v>0.9777411376751854</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>600</v>
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.9900199600798403</v>
+        <v>0.9861660079051383</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>0.991008991008991</v>
+        <v>0.9920477137176938</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>500</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.9959758551307847</v>
+        <v>0.9959677419354839</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>0.99</v>
+        <v>0.988</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.9929789368104313</v>
+        <v>0.9919678714859438</v>
       </c>
       <c r="F36" s="3" t="n">
         <v>500</v>
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.9874371859296482</v>
+        <v>0.9825436408977556</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.9825</v>
+        <v>0.985</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.9849624060150376</v>
+        <v>0.9837702871410736</v>
       </c>
       <c r="F37" s="3" t="n">
         <v>400</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.952755905511811</v>
+        <v>0.9877049180327869</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.968</v>
+        <v>0.964</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.9603174603174603</v>
+        <v>0.9757085020242915</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>500</v>
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.9933444259567388</v>
+        <v>0.9917218543046358</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.995</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.9941715237302248</v>
+        <v>0.9950166112956811</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>600</v>
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9979838709677419</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>0.99</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9939759036144579</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>500</v>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.9983333333333333</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>0.9983333333333333</v>
+        <v>1</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.9983333333333333</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3" t="n">
         <v>600</v>
@@ -1330,7 +1330,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>efficientnet_b3</t>
+          <t>resnet101</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.9915397631133672</v>
+        <v>0.9849498327759197</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>0.9766666666666667</v>
+        <v>0.9816666666666667</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>0.984047019311503</v>
+        <v>0.9833055091819699</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>600</v>
@@ -1362,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.998330550918197</v>
+        <v>0.9991659716430359</v>
       </c>
       <c r="F43" s="3" t="n">
         <v>600</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.9785478547854786</v>
+        <v>0.9721311475409836</v>
       </c>
       <c r="D44" s="3" t="n">
         <v>0.9883333333333333</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.9834162520729685</v>
+        <v>0.9801652892561984</v>
       </c>
       <c r="F44" s="3" t="n">
         <v>600</v>
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.993963782696177</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.988</v>
+        <v>0.994</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.9909729187562688</v>
+        <v>0.9900398406374502</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>500</v>
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.994</v>
+        <v>0.9959677419354839</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.994</v>
+        <v>0.988</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>0.994</v>
+        <v>0.9919678714859438</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>500</v>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.9799498746867168</v>
+        <v>0.9874055415617129</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>0.9775</v>
+        <v>0.98</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9836888331242158</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>400</v>
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.9703557312252964</v>
+        <v>0.9737903225806451</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>0.982</v>
+        <v>0.966</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0.9761431411530815</v>
+        <v>0.9698795180722891</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>500</v>
@@ -1479,13 +1479,13 @@
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>1</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.9975062344139651</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>600</v>
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>0.9881188118811881</v>
+        <v>0.9959758551307847</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>0.9930348258706467</v>
+        <v>0.9929789368104313</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>500</v>
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>1</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>0.998330550918197</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>600</v>
@@ -1534,7 +1534,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>vit_b_16</t>
+          <t>resnet50</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.9865546218487395</v>
+        <v>0.9660194174757282</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>0.9783333333333334</v>
+        <v>0.995</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.9824267782426779</v>
+        <v>0.9802955665024631</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>600</v>
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>0.9983249581239531</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>0.9933333333333333</v>
+        <v>0.99</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>0.9958228905597326</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>600</v>
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9737274220032841</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9883333333333333</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>0.9834437086092715</v>
+        <v>0.9809760132340778</v>
       </c>
       <c r="F54" s="3" t="n">
         <v>600</v>
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>0.9860557768924303</v>
+        <v>0.9879275653923542</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.99</v>
+        <v>0.982</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.9880239520958084</v>
+        <v>0.9849548645937813</v>
       </c>
       <c r="F55" s="3" t="n">
         <v>500</v>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9750623441396509</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9775</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9762796504369539</v>
       </c>
       <c r="F57" s="3" t="n">
         <v>400</v>
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="C58" s="3" t="n">
-        <v>0.9739478957915831</v>
+        <v>0.989648033126294</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>0.972</v>
+        <v>0.956</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9725330620549338</v>
       </c>
       <c r="F58" s="3" t="n">
         <v>500</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.9950083194675541</v>
+        <v>0.9983249581239531</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.9933333333333333</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>0.9958368026644463</v>
+        <v>0.9958228905597326</v>
       </c>
       <c r="F59" s="3" t="n">
         <v>600</v>
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C60" s="3" t="n">
-        <v>0.9959839357429718</v>
+        <v>0.99</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.9939879759519038</v>
+        <v>0.99</v>
       </c>
       <c r="F60" s="3" t="n">
         <v>500</v>
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="C61" s="3" t="n">
-        <v>0.9983277591973244</v>
+        <v>1</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>0.995</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>0.996661101836394</v>
+        <v>0.9991659716430359</v>
       </c>
       <c r="F61" s="3" t="n">
         <v>600</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="C62" s="3" t="n">
-        <v>0.9881355932203389</v>
+        <v>0.9737704918032787</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>0.9716666666666667</v>
+        <v>0.99</v>
       </c>
       <c r="E62" s="3" t="n">
-        <v>0.9798319327731092</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>600</v>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.995</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>0.998330550918197</v>
+        <v>0.9974937343358395</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>600</v>
@@ -1787,13 +1787,13 @@
         </is>
       </c>
       <c r="C64" s="3" t="n">
-        <v>0.9916107382550335</v>
+        <v>0.9882154882154882</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>0.985</v>
+        <v>0.9783333333333334</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>0.9882943143812709</v>
+        <v>0.983249581239531</v>
       </c>
       <c r="F64" s="3" t="n">
         <v>600</v>
@@ -1807,13 +1807,13 @@
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>0.9822485207100592</v>
+        <v>0.9899799599198397</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>0.9890764647467726</v>
+        <v>0.988988988988989</v>
       </c>
       <c r="F65" s="3" t="n">
         <v>500</v>
@@ -1847,13 +1847,13 @@
         </is>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.9800995024875622</v>
+        <v>0.9801488833746899</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.985</v>
+        <v>0.9875</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>0.9825436408977556</v>
+        <v>0.9838107098381071</v>
       </c>
       <c r="F67" s="3" t="n">
         <v>400</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.9666011787819253</v>
+        <v>0.9779116465863453</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>0.984</v>
+        <v>0.974</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>0.9752229930624381</v>
+        <v>0.9759519038076152</v>
       </c>
       <c r="F68" s="3" t="n">
         <v>500</v>
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="C69" s="3" t="n">
-        <v>0.998330550918197</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3" t="n">
         <v>0.9966666666666667</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>0.9974979149291076</v>
+        <v>0.998330550918197</v>
       </c>
       <c r="F69" s="3" t="n">
         <v>600</v>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="C70" s="3" t="n">
-        <v>0.9959677419354839</v>
+        <v>0.9940119760479041</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>0.988</v>
+        <v>0.996</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>0.9919678714859438</v>
+        <v>0.995004995004995</v>
       </c>
       <c r="F70" s="3" t="n">
         <v>500</v>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>0.9966777408637874</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>1</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>0.9983361064891847</v>
+        <v>0.9991659716430359</v>
       </c>
       <c r="F71" s="3" t="n">
         <v>600</v>
@@ -1942,7 +1942,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>convnext_tiny</t>
+          <t>vit_b_16</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>0.9915397631133672</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>0.9766666666666667</v>
+        <v>0.9683333333333334</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>0.984047019311503</v>
+        <v>0.9781144781144782</v>
       </c>
       <c r="F72" s="3" t="n">
         <v>600</v>
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="C73" s="3" t="n">
-        <v>1</v>
+        <v>0.9966442953020134</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>0.9983333333333333</v>
+        <v>0.99</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>0.9991659716430359</v>
+        <v>0.9933110367892977</v>
       </c>
       <c r="F73" s="3" t="n">
         <v>600</v>
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="C74" s="3" t="n">
-        <v>0.9771241830065359</v>
+        <v>0.9800332778702163</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.9816666666666667</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>0.9867986798679867</v>
+        <v>0.980849292256453</v>
       </c>
       <c r="F74" s="3" t="n">
         <v>600</v>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C75" s="3" t="n">
-        <v>0.9880715705765407</v>
+        <v>0.9822485207100592</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>0.994</v>
+        <v>0.996</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>0.9910269192422732</v>
+        <v>0.9890764647467726</v>
       </c>
       <c r="F75" s="3" t="n">
         <v>500</v>
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="C76" s="3" t="n">
-        <v>0.9861111111111112</v>
+        <v>0.9959839357429718</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>0.994</v>
+        <v>0.992</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>0.9900398406374502</v>
+        <v>0.9939879759519038</v>
       </c>
       <c r="F76" s="3" t="n">
         <v>500</v>
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="C77" s="3" t="n">
-        <v>0.9948849104859335</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>0.9725</v>
+        <v>0.99</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>0.9835651074589128</v>
+        <v>0.9838509316770186</v>
       </c>
       <c r="F77" s="3" t="n">
         <v>400</v>
@@ -2071,13 +2071,13 @@
         </is>
       </c>
       <c r="C78" s="3" t="n">
-        <v>0.9762376237623762</v>
+        <v>0.9643564356435643</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.986</v>
+        <v>0.974</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>0.981094527363184</v>
+        <v>0.9691542288557214</v>
       </c>
       <c r="F78" s="3" t="n">
         <v>500</v>
@@ -2091,13 +2091,13 @@
         </is>
       </c>
       <c r="C79" s="3" t="n">
-        <v>0.9983193277310924</v>
+        <v>0.9933665008291874</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>0.99</v>
+        <v>0.9983333333333333</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>0.994142259414226</v>
+        <v>0.9958437240232751</v>
       </c>
       <c r="F79" s="3" t="n">
         <v>600</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="C80" s="3" t="n">
-        <v>0.994</v>
+        <v>0.9939516129032258</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>0.994</v>
+        <v>0.986</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.994</v>
+        <v>0.9899598393574297</v>
       </c>
       <c r="F80" s="3" t="n">
         <v>500</v>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="C81" s="3" t="n">
-        <v>0.9983333333333333</v>
+        <v>0.9950083194675541</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>0.9983333333333333</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>0.9983333333333333</v>
+        <v>0.9958368026644463</v>
       </c>
       <c r="F81" s="3" t="n">
         <v>600</v>
